--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amh-Amhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amh-Amhr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H2">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I2">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J2">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3607966666666667</v>
+        <v>0.01856266666666667</v>
       </c>
       <c r="N2">
-        <v>1.08239</v>
+        <v>0.055688</v>
       </c>
       <c r="O2">
-        <v>0.496952099967999</v>
+        <v>0.06796192335855504</v>
       </c>
       <c r="P2">
-        <v>0.496952099967999</v>
+        <v>0.06796192335855505</v>
       </c>
       <c r="Q2">
-        <v>0.3262826170022223</v>
+        <v>0.0006076427057777778</v>
       </c>
       <c r="R2">
-        <v>2.93654355302</v>
+        <v>0.005468784352</v>
       </c>
       <c r="S2">
-        <v>0.2752615166845508</v>
+        <v>0.005681510364254306</v>
       </c>
       <c r="T2">
-        <v>0.2752615166845509</v>
+        <v>0.005681510364254307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H3">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I3">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J3">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.447812</v>
       </c>
       <c r="O3">
-        <v>0.2056015981216286</v>
+        <v>0.5465120820112277</v>
       </c>
       <c r="P3">
-        <v>0.2056015981216286</v>
+        <v>0.5465120820112278</v>
       </c>
       <c r="Q3">
-        <v>0.1349913351795556</v>
+        <v>0.004886325516444445</v>
       </c>
       <c r="R3">
-        <v>1.214922016616</v>
+        <v>0.043976929648</v>
       </c>
       <c r="S3">
-        <v>0.1138826211527657</v>
+        <v>0.04568755421702071</v>
       </c>
       <c r="T3">
-        <v>0.1138826211527657</v>
+        <v>0.04568755421702072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9043393333333335</v>
+        <v>0.03273466666666667</v>
       </c>
       <c r="H4">
-        <v>2.713018</v>
+        <v>0.098204</v>
       </c>
       <c r="I4">
-        <v>0.5538994939397101</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="J4">
-        <v>0.5538994939397102</v>
+        <v>0.08359843399780884</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2159516666666667</v>
+        <v>0.1053</v>
       </c>
       <c r="N4">
-        <v>0.6478550000000001</v>
+        <v>0.3159</v>
       </c>
       <c r="O4">
-        <v>0.2974463019103725</v>
+        <v>0.3855259946302173</v>
       </c>
       <c r="P4">
-        <v>0.2974463019103725</v>
+        <v>0.3855259946302173</v>
       </c>
       <c r="Q4">
-        <v>0.1952935862655556</v>
+        <v>0.0034469604</v>
       </c>
       <c r="R4">
-        <v>1.75764227639</v>
+        <v>0.0310226436</v>
       </c>
       <c r="S4">
-        <v>0.1647553561023935</v>
+        <v>0.03222936941653382</v>
       </c>
       <c r="T4">
-        <v>0.1647553561023936</v>
+        <v>0.03222936941653382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.399384</v>
       </c>
       <c r="I5">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J5">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3607966666666667</v>
+        <v>0.01856266666666667</v>
       </c>
       <c r="N5">
-        <v>1.08239</v>
+        <v>0.055688</v>
       </c>
       <c r="O5">
-        <v>0.496952099967999</v>
+        <v>0.06796192335855504</v>
       </c>
       <c r="P5">
-        <v>0.496952099967999</v>
+        <v>0.06796192335855505</v>
       </c>
       <c r="Q5">
-        <v>0.04803213864</v>
+        <v>0.002471210688</v>
       </c>
       <c r="R5">
-        <v>0.43228924776</v>
+        <v>0.022240896192</v>
       </c>
       <c r="S5">
-        <v>0.04052131079835911</v>
+        <v>0.02310602760903162</v>
       </c>
       <c r="T5">
-        <v>0.04052131079835912</v>
+        <v>0.02310602760903163</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.399384</v>
       </c>
       <c r="I6">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J6">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.447812</v>
       </c>
       <c r="O6">
-        <v>0.2056015981216286</v>
+        <v>0.5465120820112277</v>
       </c>
       <c r="P6">
-        <v>0.2056015981216286</v>
+        <v>0.5465120820112278</v>
       </c>
       <c r="Q6">
         <v>0.019872105312</v>
@@ -818,10 +818,10 @@
         <v>0.178848947808</v>
       </c>
       <c r="S6">
-        <v>0.01676468669447684</v>
+        <v>0.1858058546842348</v>
       </c>
       <c r="T6">
-        <v>0.01676468669447685</v>
+        <v>0.1858058546842349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.399384</v>
       </c>
       <c r="I7">
-        <v>0.08153967112920635</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="J7">
-        <v>0.08153967112920636</v>
+        <v>0.3399848984133119</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2159516666666667</v>
+        <v>0.1053</v>
       </c>
       <c r="N7">
-        <v>0.6478550000000001</v>
+        <v>0.3159</v>
       </c>
       <c r="O7">
-        <v>0.2974463019103725</v>
+        <v>0.3855259946302173</v>
       </c>
       <c r="P7">
-        <v>0.2974463019103725</v>
+        <v>0.3855259946302173</v>
       </c>
       <c r="Q7">
-        <v>0.02874921348</v>
+        <v>0.0140183784</v>
       </c>
       <c r="R7">
-        <v>0.25874292132</v>
+        <v>0.1261654056</v>
       </c>
       <c r="S7">
-        <v>0.02425367363637039</v>
+        <v>0.1310730161200454</v>
       </c>
       <c r="T7">
-        <v>0.0242536736363704</v>
+        <v>0.1310730161200455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H8">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I8">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J8">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3607966666666667</v>
+        <v>0.01856266666666667</v>
       </c>
       <c r="N8">
-        <v>1.08239</v>
+        <v>0.055688</v>
       </c>
       <c r="O8">
-        <v>0.496952099967999</v>
+        <v>0.06796192335855504</v>
       </c>
       <c r="P8">
-        <v>0.496952099967999</v>
+        <v>0.06796192335855505</v>
       </c>
       <c r="Q8">
-        <v>0.2147499042322222</v>
+        <v>0.004189736180444444</v>
       </c>
       <c r="R8">
-        <v>1.93274913809</v>
+        <v>0.037707625624</v>
       </c>
       <c r="S8">
-        <v>0.181169272485089</v>
+        <v>0.03917438538526911</v>
       </c>
       <c r="T8">
-        <v>0.181169272485089</v>
+        <v>0.03917438538526912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H9">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I9">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J9">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.447812</v>
       </c>
       <c r="O9">
-        <v>0.2056015981216286</v>
+        <v>0.5465120820112277</v>
       </c>
       <c r="P9">
-        <v>0.2056015981216286</v>
+        <v>0.5465120820112278</v>
       </c>
       <c r="Q9">
-        <v>0.08884744326355555</v>
+        <v>0.0336915338751111</v>
       </c>
       <c r="R9">
-        <v>0.7996269893719999</v>
+        <v>0.303223804876</v>
       </c>
       <c r="S9">
-        <v>0.07495429027438601</v>
+        <v>0.3150186731099722</v>
       </c>
       <c r="T9">
-        <v>0.07495429027438602</v>
+        <v>0.3150186731099723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5952103333333333</v>
+        <v>0.2257076666666666</v>
       </c>
       <c r="H10">
-        <v>1.785631</v>
+        <v>0.6771229999999999</v>
       </c>
       <c r="I10">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="J10">
-        <v>0.3645608349310835</v>
+        <v>0.5764166675888793</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2159516666666667</v>
+        <v>0.1053</v>
       </c>
       <c r="N10">
-        <v>0.6478550000000001</v>
+        <v>0.3159</v>
       </c>
       <c r="O10">
-        <v>0.2974463019103725</v>
+        <v>0.3855259946302173</v>
       </c>
       <c r="P10">
-        <v>0.2974463019103725</v>
+        <v>0.3855259946302173</v>
       </c>
       <c r="Q10">
-        <v>0.1285366635005556</v>
+        <v>0.0237670173</v>
       </c>
       <c r="R10">
-        <v>1.156829971505</v>
+        <v>0.2139031557</v>
       </c>
       <c r="S10">
-        <v>0.1084372721716085</v>
+        <v>0.222223609093638</v>
       </c>
       <c r="T10">
-        <v>0.1084372721716085</v>
+        <v>0.2222236090936381</v>
       </c>
     </row>
   </sheetData>
